--- a/responses.xlsx
+++ b/responses.xlsx
@@ -82,12 +82,18 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -95,6 +101,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -357,63 +366,99 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Message</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="31.3" customHeight="1" s="2">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="30.75" customHeight="1" s="4">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Soumyajit</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>abc@gmail.com</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hello , first time here
 </t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="16.4" customHeight="1" s="4">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Aryan</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>ao@gmail.com</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">hello wrld
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="61.15" customHeight="1" s="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Riyo</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>riya2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riya hates ssoumya
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Soumyajit</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sd@f</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error should jhaooen'
 </t>
         </is>
       </c>
